--- a/Fantasy.Packages/Fantasy.Config/Config/Excel/Server/SceneConfig.xlsx
+++ b/Fantasy.Packages/Fantasy.Config/Config/Excel/Server/SceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fantasy/Code/Git/Fantasy/Fantasy.Packages/Fantasy.Config/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA0EE65-381D-9A46-BF76-3AF2421B0D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462A8EC3-E9EF-9C49-8697-ED3367FBB188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneConfig" sheetId="8" r:id="rId1"/>
@@ -51,7 +51,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>由于改表格使用了公式。</t>
         </r>
@@ -61,7 +62,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -72,7 +74,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>所以不要改动列的位置。</t>
         </r>
@@ -81,7 +84,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -96,7 +100,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Id</t>
         </r>
@@ -106,7 +111,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>计算规则</t>
         </r>
@@ -116,7 +122,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -127,7 +134,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -137,7 +145,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>：</t>
         </r>
@@ -147,7 +156,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Id</t>
         </r>
@@ -157,7 +167,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>不能小于当前</t>
         </r>
@@ -167,7 +178,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>WorldConfigId * 1000 +1</t>
         </r>
@@ -177,7 +189,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>。</t>
         </r>
@@ -187,7 +200,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -198,7 +212,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2:  Id</t>
         </r>
@@ -208,7 +223,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>不能大于当前</t>
         </r>
@@ -218,7 +234,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>WorldConfigId * 1000 +255</t>
         </r>
@@ -228,7 +245,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>。</t>
         </r>
@@ -238,7 +256,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -249,7 +268,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>3</t>
         </r>
@@ -259,7 +279,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>：</t>
         </r>
@@ -269,7 +290,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Id</t>
         </r>
@@ -279,7 +301,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>必须在</t>
         </r>
@@ -289,7 +312,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>1</t>
         </r>
@@ -299,7 +323,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>和</t>
         </r>
@@ -309,7 +334,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2</t>
         </r>
@@ -319,7 +345,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>条件之间。</t>
         </r>
@@ -333,7 +360,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>ProcessConfig</t>
         </r>
@@ -343,7 +371,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>表的</t>
         </r>
@@ -353,7 +382,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">Id
 </t>
@@ -364,7 +394,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>一个进程下有多少个</t>
         </r>
@@ -374,7 +405,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -388,7 +420,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>关联</t>
         </r>
@@ -398,7 +431,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>WorldConfig</t>
         </r>
@@ -408,7 +442,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>表（</t>
         </r>
@@ -418,7 +453,8 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>不能为空）</t>
         </r>
@@ -428,7 +464,8 @@
             <sz val="10"/>
             <color rgb="FFFF0000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -439,7 +476,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>用于表示这个</t>
         </r>
@@ -449,7 +487,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -459,7 +498,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>属于哪个世界，</t>
         </r>
@@ -469,7 +509,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Fantasy</t>
         </r>
@@ -479,7 +520,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>里的世界可以理解为游戏的一个区。</t>
         </r>
@@ -489,7 +531,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -500,7 +543,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>这样就可以设置出一个进程下同时运行多个区，也是一个压缩服务器成本的一个手段</t>
         </r>
@@ -514,7 +558,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>用于配置</t>
         </r>
@@ -524,7 +569,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -534,7 +580,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>在框架中运行的方式：</t>
         </r>
@@ -544,7 +591,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -566,7 +614,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>:</t>
         </r>
@@ -576,7 +625,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>设置</t>
         </r>
@@ -586,7 +636,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -596,7 +647,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>在当前进程的主线程中运行、如果多个</t>
         </r>
@@ -606,7 +658,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -616,7 +669,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>在同一个</t>
         </r>
@@ -626,7 +680,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>ProcessConfigId</t>
         </r>
@@ -636,7 +691,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>下，表示这些</t>
         </r>
@@ -646,7 +702,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -656,7 +713,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>都是在同一个主线程中运行。如果想提升效率可以配置多个进程（也就是</t>
         </r>
@@ -666,7 +724,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Process</t>
         </r>
@@ -676,7 +735,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>）分别对应多个</t>
         </r>
@@ -686,7 +746,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -696,7 +757,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>，这样设置就是多进程单线程的配置方法。</t>
         </r>
@@ -706,7 +768,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -985,7 +1048,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>用来表示这个</t>
         </r>
@@ -995,7 +1059,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1005,7 +1070,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>是什么类型，这样可以在框架中的</t>
         </r>
@@ -1015,7 +1081,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>OnSceneCreate</t>
         </r>
@@ -1025,7 +1092,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>的事件中根据</t>
         </r>
@@ -1035,7 +1103,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>SceneType</t>
         </r>
@@ -1045,7 +1114,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>来添加不同的组件，而达到不同</t>
         </r>
@@ -1055,7 +1125,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1065,7 +1136,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>功能不一样的效果。</t>
         </r>
@@ -1075,7 +1147,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1086,7 +1159,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>比如鉴权</t>
         </r>
@@ -1096,7 +1170,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1106,7 +1181,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>和聊天</t>
         </r>
@@ -1116,7 +1192,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1126,7 +1203,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>、通过这个就可以知道当前这个</t>
         </r>
@@ -1136,7 +1214,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1146,7 +1225,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>是什么类型了，这样在创建的时候根据不同类型添加不同的组件就可以实现每个的</t>
         </r>
@@ -1156,7 +1236,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1166,7 +1247,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>功能了。</t>
         </r>
@@ -1176,7 +1258,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1187,7 +1270,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>添加</t>
         </r>
@@ -1197,7 +1281,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>SceneType</t>
         </r>
@@ -1207,7 +1292,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>需要在</t>
         </r>
@@ -1217,7 +1303,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>SceneTypeConfig</t>
         </r>
@@ -1227,7 +1314,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>工作簿里增加，当前表格下面的</t>
         </r>
@@ -1272,7 +1360,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>用于表示当前</t>
         </r>
@@ -1282,7 +1371,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1292,7 +1382,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>对客户端的网络协议。</t>
         </r>
@@ -1302,7 +1393,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1313,7 +1405,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Fantasy</t>
         </r>
@@ -1323,7 +1416,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>是以</t>
         </r>
@@ -1333,7 +1427,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1343,7 +1438,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>为单位的，所以网络协议是在</t>
         </r>
@@ -1353,7 +1449,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1363,7 +1460,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>里设置。</t>
         </r>
@@ -1373,7 +1471,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1384,7 +1483,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>比如做一个注册的</t>
         </r>
@@ -1394,7 +1494,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1404,7 +1505,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>，这里设置了协议类型和外网端口号、客户端就可以通过这个端口号来进行通讯。</t>
         </r>
@@ -1414,7 +1516,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -1425,7 +1528,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>外网通讯的地址是在</t>
         </r>
@@ -1435,7 +1539,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>MachineConfig</t>
         </r>
@@ -1445,7 +1550,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>里设置的、因为这个</t>
         </r>
@@ -1455,7 +1561,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>Scene</t>
         </r>
@@ -1465,7 +1572,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>是关联到</t>
         </r>
@@ -1475,7 +1583,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>ServerConfig</t>
         </r>
@@ -1485,7 +1594,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>下的，框架会自动根据</t>
         </r>
@@ -1543,7 +1653,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>用来表示监听的外网连接的端口号，这里不填写或填</t>
         </r>
@@ -1553,7 +1664,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>0.</t>
         </r>
@@ -1563,7 +1675,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>表示不会建立监听，也就是不会接收到外网发送的消息</t>
         </r>
@@ -1577,7 +1690,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>用来表示监听的内部网络连接的端口号，这里不填写或填</t>
         </r>
@@ -1587,7 +1701,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>0.</t>
         </r>
@@ -1597,7 +1712,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>表示不会建立监听，也就是不会接受内部网络发送的消息</t>
         </r>
@@ -1611,7 +1727,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>根据</t>
         </r>
@@ -1621,7 +1738,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>SceneTypeString</t>
         </r>
@@ -1631,7 +1749,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>列的值使用公式自动生成的，不需要手动修改。如果要修改在</t>
         </r>
@@ -1641,7 +1760,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>SceneTypeString</t>
         </r>
@@ -1651,7 +1771,8 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>列选择就可以了</t>
         </r>
@@ -1802,10 +1923,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>SceneRuntimeType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Scene运行类型</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1862,6 +1979,10 @@
   </si>
   <si>
     <t>Chat服务器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneRuntimeMode</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1923,14 +2044,16 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei UI"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1967,7 +2090,8 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei UI"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2525,8 +2649,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2560,10 +2684,10 @@
         <v>22</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
@@ -2639,13 +2763,13 @@
         <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>30</v>
@@ -2657,7 +2781,7 @@
         <v>9</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>33</v>
@@ -2674,13 +2798,13 @@
         <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>35</v>
@@ -2692,7 +2816,7 @@
         <v>14</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>29</v>
@@ -2730,10 +2854,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -2745,7 +2869,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16">
@@ -2763,13 +2887,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8" s="7">
         <v>20000</v>
@@ -2782,7 +2906,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="16">
@@ -2800,10 +2924,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -2815,7 +2939,7 @@
         <v>4</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="16">
@@ -2833,10 +2957,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -2848,7 +2972,7 @@
         <v>8</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3007,10 +3131,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
